--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1836124.078342935</v>
+        <v>-1838843.479487181</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143.9012884288044</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>277.4082074964075</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>194.919081883744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -826,10 +826,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>17.42775815369572</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>169.9738082135697</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>4.14021417313505</v>
       </c>
       <c r="U5" t="n">
-        <v>159.4508188063406</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>99.0573722300802</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>95.65907486292548</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>133.9915108222702</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>225.0704107596658</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>13.39657518570337</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>95.86949844293457</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922698</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>137.9792024346615</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>71.76895293959994</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>62.14989839348871</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>79.9081607862897</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>139.1630968205466</v>
+        <v>70.04554881124324</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.22544352992953</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2530,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>279.4578096667698</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,13 +2713,13 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065887</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.425007896998</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,10 +3721,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.848651279277</v>
+        <v>1132.95010004439</v>
       </c>
       <c r="C2" t="n">
-        <v>475.8861343388652</v>
+        <v>1132.95010004439</v>
       </c>
       <c r="D2" t="n">
-        <v>117.6204357321147</v>
+        <v>852.7397894419585</v>
       </c>
       <c r="E2" t="n">
-        <v>117.6204357321147</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F2" t="n">
-        <v>117.6204357321147</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4361,19 +4361,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2240.752159427894</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>1909.689272084324</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.808578312941</v>
+        <v>1909.689272084324</v>
       </c>
       <c r="X2" t="n">
-        <v>1380.342820051861</v>
+        <v>1909.689272084324</v>
       </c>
       <c r="Y2" t="n">
-        <v>990.2034880760491</v>
+        <v>1519.549940108512</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
@@ -4407,25 +4407,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2362.9309660677</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1608.599654429051</v>
+        <v>1444.105910816296</v>
       </c>
       <c r="C4" t="n">
-        <v>1439.663471501144</v>
+        <v>1275.169727888389</v>
       </c>
       <c r="D4" t="n">
-        <v>1289.546832088808</v>
+        <v>1125.053088476053</v>
       </c>
       <c r="E4" t="n">
-        <v>1141.633738506415</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="F4" t="n">
-        <v>994.7437910085044</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="G4" t="n">
         <v>977.1399948936603</v>
@@ -4528,10 +4528,10 @@
         <v>2018.237670157308</v>
       </c>
       <c r="X4" t="n">
-        <v>1790.24811925929</v>
+        <v>1846.546954790065</v>
       </c>
       <c r="Y4" t="n">
-        <v>1790.24811925929</v>
+        <v>1625.754375646535</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1163.744434193592</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>1163.744434193592</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
         <v>51.2467865680031</v>
@@ -4565,13 +4565,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2558.157293881837</v>
       </c>
       <c r="U5" t="n">
-        <v>2276.578687788907</v>
+        <v>2304.576233146016</v>
       </c>
       <c r="V5" t="n">
-        <v>2276.578687788907</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="W5" t="n">
-        <v>1923.810032518793</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="X5" t="n">
-        <v>1550.344274257713</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="Y5" t="n">
-        <v>1550.344274257713</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
@@ -4644,28 +4644,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.2996089082458</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="C7" t="n">
-        <v>201.3634259803388</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1539.820791930128</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1539.820791930128</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1316.842311124863</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1316.842311124863</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V7" t="n">
-        <v>1062.157822918976</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="W7" t="n">
-        <v>772.7406528820156</v>
+        <v>895.7157139915105</v>
       </c>
       <c r="X7" t="n">
-        <v>772.7406528820156</v>
+        <v>667.7261630934931</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.9480737384855</v>
+        <v>446.933583949963</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1324.805867331308</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C8" t="n">
-        <v>955.8433503908966</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>597.5776517841462</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>597.5776517841462</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>186.5917469945386</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800308</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800308</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087291</v>
@@ -4814,40 +4814,40 @@
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926624</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.87146565651</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X8" t="n">
-        <v>1711.40570739543</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="Y8" t="n">
-        <v>1711.40570739543</v>
+        <v>2003.932591804396</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1154.038517360655</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>655.4695685676043</v>
+        <v>783.0370443974457</v>
       </c>
       <c r="C10" t="n">
-        <v>486.5333856396974</v>
+        <v>614.1008614695388</v>
       </c>
       <c r="D10" t="n">
-        <v>486.5333856396974</v>
+        <v>463.9842220572031</v>
       </c>
       <c r="E10" t="n">
-        <v>338.6202920573043</v>
+        <v>316.0711284748099</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>316.0711284748099</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>148.0846637830885</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>148.0846637830885</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V10" t="n">
-        <v>1347.327782578335</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W10" t="n">
-        <v>1057.910612541374</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="X10" t="n">
-        <v>1057.910612541374</v>
+        <v>1185.478088371216</v>
       </c>
       <c r="Y10" t="n">
-        <v>837.118033397844</v>
+        <v>964.6855092276854</v>
       </c>
     </row>
     <row r="11">
@@ -5039,22 +5039,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356204</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232847</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408915</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429812</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5203,46 +5203,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797756</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172275</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135314</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237297</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093767</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>695.5020655703114</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>547.5889719879183</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5601,13 +5601,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.345997432835</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C19" t="n">
-        <v>923.4098145049279</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D19" t="n">
-        <v>773.2931750925922</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E19" t="n">
-        <v>625.380081510199</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.776592304622</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.787041406604</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.994462263074</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>653.1541313646961</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>505.241037782303</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C28" t="n">
         <v>782.5512955656818</v>
@@ -6370,7 +6370,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6643,19 +6643,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384014</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6862,22 +6862,22 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O34" t="n">
         <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6886,22 +6886,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150023</v>
@@ -7087,7 +7087,7 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,25 +7096,25 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,7 +7123,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,28 +7327,28 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,13 +7591,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384017</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>255.5240487471569</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.35797727397565</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>54.95314511566528</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>199.7516311504061</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>238.8325532346762</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>77.27483412427547</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>367.5546555398475</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>55.73584717546748</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>114.1584408891665</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>146.8157004124948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>83.27114962944253</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>145.8014946027475</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>6.257951202384618</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>125.1956044930017</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>7.065188669821168</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-4.141132009537592e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1317712.664146384</v>
+        <v>1317712.664146383</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1317712.664146383</v>
+        <v>1317712.664146384</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81152.27790359153</v>
+        <v>81152.27790359159</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26323,7 +26323,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
         <v>100893.3249612508</v>
@@ -26332,13 +26332,13 @@
         <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
         <v>102630.2212330356</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330355</v>
@@ -26350,7 +26350,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
         <v>187032.8958036143</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33838.50360469843</v>
+        <v>33838.5036046984</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26427,34 +26427,34 @@
         <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707372</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.424496707337</v>
-      </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="J4" t="n">
+        <v>14888.28375980085</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14888.28375980083</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14888.28375980083</v>
+      </c>
+      <c r="M4" t="n">
         <v>14888.28375980084</v>
       </c>
-      <c r="K4" t="n">
-        <v>14888.28375980084</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14888.28375980084</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>14888.28375980082</v>
+      </c>
+      <c r="O4" t="n">
         <v>14888.28375980083</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14888.28375980084</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14888.28375980085</v>
       </c>
       <c r="P4" t="n">
         <v>14888.28375980083</v>
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1160375.781716871</v>
+        <v>-1160805.34058346</v>
       </c>
       <c r="C6" t="n">
         <v>-122217.2780384343</v>
       </c>
       <c r="D6" t="n">
-        <v>-122217.2780384343</v>
+        <v>-122217.2780384342</v>
       </c>
       <c r="E6" t="n">
-        <v>-514612.0709839097</v>
+        <v>-514646.8089093451</v>
       </c>
       <c r="F6" t="n">
-        <v>-7126.629359363709</v>
+        <v>-7161.367284799388</v>
       </c>
       <c r="G6" t="n">
-        <v>-7126.629359363709</v>
+        <v>-7161.367284799388</v>
       </c>
       <c r="H6" t="n">
-        <v>-7126.629359363695</v>
+        <v>-7161.367284799388</v>
       </c>
       <c r="I6" t="n">
-        <v>-7126.629359363724</v>
+        <v>-7161.367284799446</v>
       </c>
       <c r="J6" t="n">
         <v>-202455.0741842949</v>
       </c>
       <c r="K6" t="n">
-        <v>-15422.17838068062</v>
+        <v>-15422.17838068077</v>
       </c>
       <c r="L6" t="n">
-        <v>-15422.17838068077</v>
+        <v>-15422.17838068078</v>
       </c>
       <c r="M6" t="n">
         <v>-148029.4721096075</v>
@@ -26558,7 +26558,7 @@
         <v>-15422.17838068077</v>
       </c>
       <c r="O6" t="n">
-        <v>-34849.89637431256</v>
+        <v>-34849.89637431255</v>
       </c>
       <c r="P6" t="n">
         <v>-15422.17838068077</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>39.32139020186389</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>56.126168244718</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>148.8788418911085</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>202.5179708070987</v>
       </c>
       <c r="U5" t="n">
-        <v>91.59443132212138</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>80.77460795185709</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>5.898497556648152</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>277.5561919506838</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27910,16 +27910,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>161.1675278963878</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>132.0244728372279</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>8.927096760965995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496632</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,10 +33032,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>595.327537312171</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34784,19 +34784,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>622.4553810291975</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.8386996048302</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977094</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>352.6335057535154</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>418.4229873015965</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>566.6829634324466</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191325</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663299</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,10 +36680,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9858252288377</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
